--- a/ProjectPlan (version 1).xlsx
+++ b/ProjectPlan (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhua.JAMP100D\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDA1307-1461-4F4A-9AC3-3FBA77966132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC6E0CF-35D0-49FB-94DE-3F813E203368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>Problem summary</t>
   </si>
@@ -328,6 +327,42 @@
   </si>
   <si>
     <t>Pit stop, Vehicle and battery</t>
+  </si>
+  <si>
+    <t>Minor changes in Pit stop</t>
+  </si>
+  <si>
+    <t>HAS IOT , BATTSLNO, Battery model and other small changes</t>
+  </si>
+  <si>
+    <t>All master</t>
+  </si>
+  <si>
+    <t>Emergency corrections</t>
+  </si>
+  <si>
+    <t>Core class, FM's etc has been changed by Roopesh, so fixing all that</t>
+  </si>
+  <si>
+    <t>2 - 3 hrs</t>
+  </si>
+  <si>
+    <t>Corrected in 6 masters  - Check if we need to capture this efforts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odata </t>
+  </si>
+  <si>
+    <t>Odata changes</t>
+  </si>
+  <si>
+    <t>PitStop master, Vehicle allotment changes</t>
+  </si>
+  <si>
+    <t>Naming convention corrections  and BOM Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming convention changes and BOM Master develoopment </t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66B46F1-D9C7-43A3-823A-EC8EE2FE7B6B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,28 +1524,134 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="15">
+        <v>45743</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="15">
+        <v>45744</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="15">
+        <v>45745</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>45746</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>45748</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectPlan (version 1).xlsx
+++ b/ProjectPlan (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhua.JAMP100D\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhua.JAMP100D\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC6E0CF-35D0-49FB-94DE-3F813E203368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0782CD3-9276-45C2-A6EC-2FE0DD17D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>Problem summary</t>
   </si>
@@ -363,6 +363,57 @@
   </si>
   <si>
     <t xml:space="preserve">Naming convention changes and BOM Master develoopment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming convention corrections  again </t>
+  </si>
+  <si>
+    <t>reaplace XX with CA</t>
+  </si>
+  <si>
+    <t>Corrected again</t>
+  </si>
+  <si>
+    <t>Odata customer master createion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis (4) to find 3 BAPI's + Classes and to have a success test data, </t>
+  </si>
+  <si>
+    <t>6 hrs for dummy report cretion ( can't have BAPI test in SE37 and it involved deep strucutre</t>
+  </si>
+  <si>
+    <t>5 hrs for odata coding and testing</t>
+  </si>
+  <si>
+    <t>It's a big master involoving 3 BAPI and a class API which has deep strucutre</t>
+  </si>
+  <si>
+    <t>Took time to understand BP vs KUNNR, and I captured reasonable efforts that any developer can take</t>
+  </si>
+  <si>
+    <t>Digitax changes</t>
+  </si>
+  <si>
+    <t>Most of the work Akash did</t>
+  </si>
+  <si>
+    <t>Ad-hoc meeting - Late night</t>
+  </si>
+  <si>
+    <t>Was part of meeting for initial support</t>
+  </si>
+  <si>
+    <t>Ad-hoc meeting</t>
+  </si>
+  <si>
+    <t>Meeting during office hrs</t>
+  </si>
+  <si>
+    <t>Meeting during late night</t>
+  </si>
+  <si>
+    <t>Meeting during late evening</t>
   </si>
 </sst>
 </file>
@@ -458,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +542,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66B46F1-D9C7-43A3-823A-EC8EE2FE7B6B}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,36 +1674,176 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="15">
+        <v>45749</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="15">
+        <v>45750</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="C36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="15">
+        <v>45758</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="18">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="15">
+        <v>45759</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>45760</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>45766</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>45767</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>45768</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>45769</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>45770</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>45771</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
